--- a/ProbableCasesOverTimeByCounty/2021-03-10.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-03-10.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 03/09/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 03/10/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Probable 2021-03-09</t>
+  </si>
+  <si>
+    <t>Probable 2021-03-10</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1415,6 +1418,7 @@
     <col min="128" max="128" width="12.0" customWidth="true"/>
     <col min="129" max="129" width="12.0" customWidth="true"/>
     <col min="130" max="130" width="12.0" customWidth="true"/>
+    <col min="131" max="131" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1818,10 +1822,13 @@
       <c r="DZ3" t="s" s="10">
         <v>131</v>
       </c>
+      <c r="EA3" t="s" s="10">
+        <v>132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -2209,11 +2216,14 @@
       </c>
       <c r="DZ4" t="n">
         <v>1267.0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>1268.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2600,12 +2610,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2993,11 +3006,14 @@
       </c>
       <c r="DZ6" t="n">
         <v>3318.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>3339.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -3384,12 +3400,15 @@
         <v>277.0</v>
       </c>
       <c r="DZ7" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="EA7" t="n">
         <v>277.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3777,11 +3796,14 @@
       </c>
       <c r="DZ8" t="n">
         <v>100.0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -4168,12 +4190,15 @@
         <v>42.0</v>
       </c>
       <c r="DZ9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EA9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -4561,11 +4586,14 @@
       </c>
       <c r="DZ10" t="n">
         <v>1353.0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>1357.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4953,11 +4981,14 @@
       </c>
       <c r="DZ11" t="n">
         <v>305.0</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>310.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -5344,12 +5375,15 @@
         <v>215.0</v>
       </c>
       <c r="DZ12" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="EA12" t="n">
         <v>217.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -5737,11 +5771,14 @@
       </c>
       <c r="DZ13" t="n">
         <v>367.0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>368.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -6129,11 +6166,14 @@
       </c>
       <c r="DZ14" t="n">
         <v>1945.0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>1950.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -6520,12 +6560,15 @@
         <v>169.0</v>
       </c>
       <c r="DZ15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="EA15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -6912,12 +6955,15 @@
         <v>372.0</v>
       </c>
       <c r="DZ16" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="EA16" t="n">
         <v>372.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7304,12 +7350,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -7697,11 +7746,14 @@
       </c>
       <c r="DZ18" t="n">
         <v>29506.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>29550.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -8089,11 +8141,14 @@
       </c>
       <c r="DZ19" t="n">
         <v>116.0</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -8480,12 +8535,15 @@
         <v>8.0</v>
       </c>
       <c r="DZ20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="EA20" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -8872,12 +8930,15 @@
         <v>292.0</v>
       </c>
       <c r="DZ21" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="EA21" t="n">
         <v>294.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -9265,11 +9326,14 @@
       </c>
       <c r="DZ22" t="n">
         <v>2074.0</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>2076.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -9657,11 +9721,14 @@
       </c>
       <c r="DZ23" t="n">
         <v>5402.0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>5425.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -10049,11 +10116,14 @@
       </c>
       <c r="DZ24" t="n">
         <v>3746.0</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>3759.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -10441,11 +10511,14 @@
       </c>
       <c r="DZ25" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -10832,12 +10905,15 @@
         <v>60.0</v>
       </c>
       <c r="DZ26" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="EA26" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -11225,11 +11301,14 @@
       </c>
       <c r="DZ27" t="n">
         <v>113.0</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -11616,12 +11695,15 @@
         <v>2216.0</v>
       </c>
       <c r="DZ28" t="n">
+        <v>2216.0</v>
+      </c>
+      <c r="EA28" t="n">
         <v>2216.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -12008,12 +12090,15 @@
         <v>398.0</v>
       </c>
       <c r="DZ29" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="EA29" t="n">
         <v>400.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -12401,11 +12486,14 @@
       </c>
       <c r="DZ30" t="n">
         <v>460.0</v>
+      </c>
+      <c r="EA30" t="n">
+        <v>465.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -12792,12 +12880,15 @@
         <v>290.0</v>
       </c>
       <c r="DZ31" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="EA31" t="n">
         <v>291.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -13184,12 +13275,15 @@
         <v>399.0</v>
       </c>
       <c r="DZ32" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="EA32" t="n">
         <v>399.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -13576,12 +13670,15 @@
         <v>559.0</v>
       </c>
       <c r="DZ33" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="EA33" t="n">
         <v>560.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -13968,12 +14065,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -14360,12 +14460,15 @@
         <v>391.0</v>
       </c>
       <c r="DZ35" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="EA35" t="n">
         <v>391.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -14752,12 +14855,15 @@
         <v>148.0</v>
       </c>
       <c r="DZ36" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="EA36" t="n">
         <v>149.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -15145,11 +15251,14 @@
       </c>
       <c r="DZ37" t="n">
         <v>669.0</v>
+      </c>
+      <c r="EA37" t="n">
+        <v>671.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -15536,12 +15645,15 @@
         <v>251.0</v>
       </c>
       <c r="DZ38" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="EA38" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -15928,12 +16040,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -16321,11 +16436,14 @@
       </c>
       <c r="DZ40" t="n">
         <v>1820.0</v>
+      </c>
+      <c r="EA40" t="n">
+        <v>1821.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -16712,12 +16830,15 @@
         <v>23.0</v>
       </c>
       <c r="DZ41" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="EA41" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -17104,12 +17225,15 @@
         <v>81.0</v>
       </c>
       <c r="DZ42" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="EA42" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -17496,12 +17620,15 @@
         <v>28.0</v>
       </c>
       <c r="DZ43" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="EA43" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -17889,11 +18016,14 @@
       </c>
       <c r="DZ44" t="n">
         <v>223.0</v>
+      </c>
+      <c r="EA44" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -18281,11 +18411,14 @@
       </c>
       <c r="DZ45" t="n">
         <v>236.0</v>
+      </c>
+      <c r="EA45" t="n">
+        <v>244.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -18673,11 +18806,14 @@
       </c>
       <c r="DZ46" t="n">
         <v>13690.0</v>
+      </c>
+      <c r="EA46" t="n">
+        <v>13754.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -19064,12 +19200,15 @@
         <v>70.0</v>
       </c>
       <c r="DZ47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="EA47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -19457,11 +19596,14 @@
       </c>
       <c r="DZ48" t="n">
         <v>279.0</v>
+      </c>
+      <c r="EA48" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -19849,11 +19991,14 @@
       </c>
       <c r="DZ49" t="n">
         <v>4396.0</v>
+      </c>
+      <c r="EA49" t="n">
+        <v>4411.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -20241,11 +20386,14 @@
       </c>
       <c r="DZ50" t="n">
         <v>345.0</v>
+      </c>
+      <c r="EA50" t="n">
+        <v>347.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -20632,12 +20780,15 @@
         <v>142.0</v>
       </c>
       <c r="DZ51" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="EA51" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -21025,11 +21176,14 @@
       </c>
       <c r="DZ52" t="n">
         <v>413.0</v>
+      </c>
+      <c r="EA52" t="n">
+        <v>463.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -21416,12 +21570,15 @@
         <v>244.0</v>
       </c>
       <c r="DZ53" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="EA53" t="n">
         <v>245.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -21808,12 +21965,15 @@
         <v>46.0</v>
       </c>
       <c r="DZ54" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="EA54" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -22201,11 +22361,14 @@
       </c>
       <c r="DZ55" t="n">
         <v>306.0</v>
+      </c>
+      <c r="EA55" t="n">
+        <v>315.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -22592,12 +22755,15 @@
         <v>356.0</v>
       </c>
       <c r="DZ56" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="EA56" t="n">
         <v>356.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -22984,12 +23150,15 @@
         <v>207.0</v>
       </c>
       <c r="DZ57" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="EA57" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -23376,12 +23545,15 @@
         <v>23.0</v>
       </c>
       <c r="DZ58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="EA58" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -23768,12 +23940,15 @@
         <v>134.0</v>
       </c>
       <c r="DZ59" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="EA59" t="n">
         <v>134.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -24161,11 +24336,14 @@
       </c>
       <c r="DZ60" t="n">
         <v>36536.0</v>
+      </c>
+      <c r="EA60" t="n">
+        <v>36710.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -24552,12 +24730,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -24945,11 +25126,14 @@
       </c>
       <c r="DZ62" t="n">
         <v>648.0</v>
+      </c>
+      <c r="EA62" t="n">
+        <v>649.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -25337,11 +25521,14 @@
       </c>
       <c r="DZ63" t="n">
         <v>127.0</v>
+      </c>
+      <c r="EA63" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -25729,11 +25916,14 @@
       </c>
       <c r="DZ64" t="n">
         <v>16914.0</v>
+      </c>
+      <c r="EA64" t="n">
+        <v>17128.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -26120,12 +26310,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -26512,12 +26705,15 @@
         <v>57.0</v>
       </c>
       <c r="DZ66" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="EA66" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -26905,11 +27101,14 @@
       </c>
       <c r="DZ67" t="n">
         <v>181.0</v>
+      </c>
+      <c r="EA67" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -27296,12 +27495,15 @@
         <v>178.0</v>
       </c>
       <c r="DZ68" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="EA68" t="n">
         <v>176.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -27689,11 +27891,14 @@
       </c>
       <c r="DZ69" t="n">
         <v>113.0</v>
+      </c>
+      <c r="EA69" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -28080,12 +28285,15 @@
         <v>388.0</v>
       </c>
       <c r="DZ70" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="EA70" t="n">
         <v>389.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -28472,12 +28680,15 @@
         <v>7945.0</v>
       </c>
       <c r="DZ71" t="n">
+        <v>7961.0</v>
+      </c>
+      <c r="EA71" t="n">
         <v>7961.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -28864,12 +29075,15 @@
         <v>45.0</v>
       </c>
       <c r="DZ72" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="EA72" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -29257,11 +29471,14 @@
       </c>
       <c r="DZ73" t="n">
         <v>3261.0</v>
+      </c>
+      <c r="EA73" t="n">
+        <v>3272.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -29648,12 +29865,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -30041,11 +30261,14 @@
       </c>
       <c r="DZ75" t="n">
         <v>1272.0</v>
+      </c>
+      <c r="EA75" t="n">
+        <v>1279.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -30432,12 +30655,15 @@
         <v>179.0</v>
       </c>
       <c r="DZ76" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="EA76" t="n">
         <v>179.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -30825,11 +31051,14 @@
       </c>
       <c r="DZ77" t="n">
         <v>689.0</v>
+      </c>
+      <c r="EA77" t="n">
+        <v>740.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -31217,11 +31446,14 @@
       </c>
       <c r="DZ78" t="n">
         <v>892.0</v>
+      </c>
+      <c r="EA78" t="n">
+        <v>895.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -31608,12 +31840,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -32001,11 +32236,14 @@
       </c>
       <c r="DZ80" t="n">
         <v>443.0</v>
+      </c>
+      <c r="EA80" t="n">
+        <v>445.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -32393,11 +32631,14 @@
       </c>
       <c r="DZ81" t="n">
         <v>32.0</v>
+      </c>
+      <c r="EA81" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -32785,11 +33026,14 @@
       </c>
       <c r="DZ82" t="n">
         <v>7675.0</v>
+      </c>
+      <c r="EA82" t="n">
+        <v>7707.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -33176,12 +33420,15 @@
         <v>209.0</v>
       </c>
       <c r="DZ83" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="EA83" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -33569,11 +33816,14 @@
       </c>
       <c r="DZ84" t="n">
         <v>722.0</v>
+      </c>
+      <c r="EA84" t="n">
+        <v>724.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -33960,12 +34210,15 @@
         <v>562.0</v>
       </c>
       <c r="DZ85" t="n">
+        <v>563.0</v>
+      </c>
+      <c r="EA85" t="n">
         <v>563.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -34352,12 +34605,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -34745,11 +35001,14 @@
       </c>
       <c r="DZ87" t="n">
         <v>4931.0</v>
+      </c>
+      <c r="EA87" t="n">
+        <v>4956.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -35136,12 +35395,15 @@
         <v>156.0</v>
       </c>
       <c r="DZ88" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="EA88" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -35529,11 +35791,14 @@
       </c>
       <c r="DZ89" t="n">
         <v>800.0</v>
+      </c>
+      <c r="EA89" t="n">
+        <v>801.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -35920,12 +36185,15 @@
         <v>61.0</v>
       </c>
       <c r="DZ90" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EA90" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -36312,12 +36580,15 @@
         <v>153.0</v>
       </c>
       <c r="DZ91" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="EA91" t="n">
         <v>153.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -36705,11 +36976,14 @@
       </c>
       <c r="DZ92" t="n">
         <v>336.0</v>
+      </c>
+      <c r="EA92" t="n">
+        <v>335.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -37097,11 +37371,14 @@
       </c>
       <c r="DZ93" t="n">
         <v>286.0</v>
+      </c>
+      <c r="EA93" t="n">
+        <v>287.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -37488,12 +37765,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -37881,11 +38161,14 @@
       </c>
       <c r="DZ95" t="n">
         <v>4798.0</v>
+      </c>
+      <c r="EA95" t="n">
+        <v>4801.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -38273,11 +38556,14 @@
       </c>
       <c r="DZ96" t="n">
         <v>313.0</v>
+      </c>
+      <c r="EA96" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -38665,11 +38951,14 @@
       </c>
       <c r="DZ97" t="n">
         <v>3269.0</v>
+      </c>
+      <c r="EA97" t="n">
+        <v>3298.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -39056,12 +39345,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -39448,12 +39740,15 @@
         <v>98.0</v>
       </c>
       <c r="DZ99" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="EA99" t="n">
         <v>99.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -39840,12 +40135,15 @@
         <v>50.0</v>
       </c>
       <c r="DZ100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="EA100" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -40232,12 +40530,15 @@
         <v>454.0</v>
       </c>
       <c r="DZ101" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="EA101" t="n">
         <v>454.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -40624,12 +40925,15 @@
         <v>55.0</v>
       </c>
       <c r="DZ102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="EA102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -41017,11 +41321,14 @@
       </c>
       <c r="DZ103" t="n">
         <v>2495.0</v>
+      </c>
+      <c r="EA103" t="n">
+        <v>2536.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -41408,12 +41715,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -41801,11 +42111,14 @@
       </c>
       <c r="DZ105" t="n">
         <v>2223.0</v>
+      </c>
+      <c r="EA105" t="n">
+        <v>2225.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -42192,12 +42505,15 @@
         <v>102.0</v>
       </c>
       <c r="DZ106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="EA106" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -42584,12 +42900,15 @@
         <v>237.0</v>
       </c>
       <c r="DZ107" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="EA107" t="n">
         <v>237.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -42977,11 +43296,14 @@
       </c>
       <c r="DZ108" t="n">
         <v>1832.0</v>
+      </c>
+      <c r="EA108" t="n">
+        <v>1833.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -43368,12 +43690,15 @@
         <v>43.0</v>
       </c>
       <c r="DZ109" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="EA109" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -43761,11 +44086,14 @@
       </c>
       <c r="DZ110" t="n">
         <v>1858.0</v>
+      </c>
+      <c r="EA110" t="n">
+        <v>1860.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -44153,11 +44481,14 @@
       </c>
       <c r="DZ111" t="n">
         <v>25998.0</v>
+      </c>
+      <c r="EA111" t="n">
+        <v>26135.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -44545,11 +44876,14 @@
       </c>
       <c r="DZ112" t="n">
         <v>666.0</v>
+      </c>
+      <c r="EA112" t="n">
+        <v>665.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -44937,11 +45271,14 @@
       </c>
       <c r="DZ113" t="n">
         <v>271.0</v>
+      </c>
+      <c r="EA113" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -45329,11 +45666,14 @@
       </c>
       <c r="DZ114" t="n">
         <v>2089.0</v>
+      </c>
+      <c r="EA114" t="n">
+        <v>2093.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -45721,11 +46061,14 @@
       </c>
       <c r="DZ115" t="n">
         <v>1425.0</v>
+      </c>
+      <c r="EA115" t="n">
+        <v>1426.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -46113,11 +46456,14 @@
       </c>
       <c r="DZ116" t="n">
         <v>699.0</v>
+      </c>
+      <c r="EA116" t="n">
+        <v>700.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -46505,11 +46851,14 @@
       </c>
       <c r="DZ117" t="n">
         <v>1520.0</v>
+      </c>
+      <c r="EA117" t="n">
+        <v>1519.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -46896,12 +47245,15 @@
         <v>79.0</v>
       </c>
       <c r="DZ118" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="EA118" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -47288,12 +47640,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -47681,11 +48036,14 @@
       </c>
       <c r="DZ120" t="n">
         <v>467.0</v>
+      </c>
+      <c r="EA120" t="n">
+        <v>468.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -48072,12 +48430,15 @@
         <v>67.0</v>
       </c>
       <c r="DZ121" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="EA121" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -48464,12 +48825,15 @@
         <v>78.0</v>
       </c>
       <c r="DZ122" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="EA122" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -48856,12 +49220,15 @@
         <v>250.0</v>
       </c>
       <c r="DZ123" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="EA123" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -49248,12 +49615,15 @@
         <v>1393.0</v>
       </c>
       <c r="DZ124" t="n">
+        <v>1398.0</v>
+      </c>
+      <c r="EA124" t="n">
         <v>1398.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -49640,12 +50010,15 @@
         <v>42.0</v>
       </c>
       <c r="DZ125" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="EA125" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -50032,12 +50405,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -50424,12 +50800,15 @@
         <v>33.0</v>
       </c>
       <c r="DZ127" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="EA127" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -50817,11 +51196,14 @@
       </c>
       <c r="DZ128" t="n">
         <v>490.0</v>
+      </c>
+      <c r="EA128" t="n">
+        <v>495.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -51209,11 +51591,14 @@
       </c>
       <c r="DZ129" t="n">
         <v>2620.0</v>
+      </c>
+      <c r="EA129" t="n">
+        <v>2638.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -51601,11 +51986,14 @@
       </c>
       <c r="DZ130" t="n">
         <v>677.0</v>
+      </c>
+      <c r="EA130" t="n">
+        <v>678.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -51992,12 +52380,15 @@
         <v>206.0</v>
       </c>
       <c r="DZ131" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="EA131" t="n">
         <v>206.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -52385,11 +52776,14 @@
       </c>
       <c r="DZ132" t="n">
         <v>2285.0</v>
+      </c>
+      <c r="EA132" t="n">
+        <v>2300.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -52777,11 +53171,14 @@
       </c>
       <c r="DZ133" t="n">
         <v>1404.0</v>
+      </c>
+      <c r="EA133" t="n">
+        <v>1408.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -53168,12 +53565,15 @@
         <v>16.0</v>
       </c>
       <c r="DZ134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="EA134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -53560,12 +53960,15 @@
         <v>44.0</v>
       </c>
       <c r="DZ135" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="EA135" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -53953,11 +54356,14 @@
       </c>
       <c r="DZ136" t="n">
         <v>2072.0</v>
+      </c>
+      <c r="EA136" t="n">
+        <v>2075.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -54344,12 +54750,15 @@
         <v>54.0</v>
       </c>
       <c r="DZ137" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="EA137" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -54736,12 +55145,15 @@
         <v>6.0</v>
       </c>
       <c r="DZ138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="EA138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -55128,12 +55540,15 @@
         <v>14.0</v>
       </c>
       <c r="DZ139" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="EA139" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -55521,11 +55936,14 @@
       </c>
       <c r="DZ140" t="n">
         <v>586.0</v>
+      </c>
+      <c r="EA140" t="n">
+        <v>590.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -55912,12 +56330,15 @@
         <v>83.0</v>
       </c>
       <c r="DZ141" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="EA141" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -56305,11 +56726,14 @@
       </c>
       <c r="DZ142" t="n">
         <v>3097.0</v>
+      </c>
+      <c r="EA142" t="n">
+        <v>3102.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -56696,12 +57120,15 @@
         <v>435.0</v>
       </c>
       <c r="DZ143" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="EA143" t="n">
         <v>436.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -57089,11 +57516,14 @@
       </c>
       <c r="DZ144" t="n">
         <v>324.0</v>
+      </c>
+      <c r="EA144" t="n">
+        <v>325.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -57480,12 +57910,15 @@
         <v>133.0</v>
       </c>
       <c r="DZ145" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="EA145" t="n">
         <v>135.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -57873,11 +58306,14 @@
       </c>
       <c r="DZ146" t="n">
         <v>437.0</v>
+      </c>
+      <c r="EA146" t="n">
+        <v>440.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -58265,11 +58701,14 @@
       </c>
       <c r="DZ147" t="n">
         <v>1090.0</v>
+      </c>
+      <c r="EA147" t="n">
+        <v>1094.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -58657,11 +59096,14 @@
       </c>
       <c r="DZ148" t="n">
         <v>331.0</v>
+      </c>
+      <c r="EA148" t="n">
+        <v>332.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -59049,11 +59491,14 @@
       </c>
       <c r="DZ149" t="n">
         <v>1626.0</v>
+      </c>
+      <c r="EA149" t="n">
+        <v>1645.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -59440,12 +59885,15 @@
         <v>575.0</v>
       </c>
       <c r="DZ150" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="EA150" t="n">
         <v>575.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -59832,12 +60280,15 @@
         <v>24.0</v>
       </c>
       <c r="DZ151" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="EA151" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -60224,12 +60675,15 @@
         <v>249.0</v>
       </c>
       <c r="DZ152" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="EA152" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -60617,11 +61071,14 @@
       </c>
       <c r="DZ153" t="n">
         <v>449.0</v>
+      </c>
+      <c r="EA153" t="n">
+        <v>455.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -61008,12 +61465,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -61400,12 +61860,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -61792,12 +62255,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -62184,12 +62650,15 @@
         <v>156.0</v>
       </c>
       <c r="DZ157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="EA157" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -62576,12 +63045,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -62968,12 +63440,15 @@
         <v>19.0</v>
       </c>
       <c r="DZ159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="EA159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -63361,11 +63836,14 @@
       </c>
       <c r="DZ160" t="n">
         <v>232.0</v>
+      </c>
+      <c r="EA160" t="n">
+        <v>233.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -63753,11 +64231,14 @@
       </c>
       <c r="DZ161" t="n">
         <v>183.0</v>
+      </c>
+      <c r="EA161" t="n">
+        <v>184.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -64144,12 +64625,15 @@
         <v>251.0</v>
       </c>
       <c r="DZ162" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="EA162" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -64536,12 +65020,15 @@
         <v>146.0</v>
       </c>
       <c r="DZ163" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="EA163" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -64929,11 +65416,14 @@
       </c>
       <c r="DZ164" t="n">
         <v>398.0</v>
+      </c>
+      <c r="EA164" t="n">
+        <v>401.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -65320,12 +65810,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -65712,12 +66205,15 @@
         <v>1010.0</v>
       </c>
       <c r="DZ166" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="EA166" t="n">
         <v>1011.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -66104,12 +66600,15 @@
         <v>65.0</v>
       </c>
       <c r="DZ167" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="EA167" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -66496,12 +66995,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -66888,12 +67390,15 @@
         <v>1026.0</v>
       </c>
       <c r="DZ169" t="n">
+        <v>1039.0</v>
+      </c>
+      <c r="EA169" t="n">
         <v>1039.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -67280,12 +67785,15 @@
         <v>58.0</v>
       </c>
       <c r="DZ170" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="EA170" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -67672,12 +68180,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -68064,12 +68575,15 @@
         <v>306.0</v>
       </c>
       <c r="DZ172" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="EA172" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -68457,11 +68971,14 @@
       </c>
       <c r="DZ173" t="n">
         <v>8745.0</v>
+      </c>
+      <c r="EA173" t="n">
+        <v>8859.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -68848,12 +69365,15 @@
         <v>306.0</v>
       </c>
       <c r="DZ174" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="EA174" t="n">
         <v>308.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -69240,12 +69760,15 @@
         <v>270.0</v>
       </c>
       <c r="DZ175" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="EA175" t="n">
         <v>271.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -69632,12 +70155,15 @@
         <v>49.0</v>
       </c>
       <c r="DZ176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="EA176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -70025,11 +70551,14 @@
       </c>
       <c r="DZ177" t="n">
         <v>966.0</v>
+      </c>
+      <c r="EA177" t="n">
+        <v>982.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -70416,12 +70945,15 @@
         <v>2205.0</v>
       </c>
       <c r="DZ178" t="n">
+        <v>2205.0</v>
+      </c>
+      <c r="EA178" t="n">
         <v>2205.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -70808,12 +71340,15 @@
         <v>291.0</v>
       </c>
       <c r="DZ179" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="EA179" t="n">
         <v>292.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -71200,12 +71735,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -71593,11 +72131,14 @@
       </c>
       <c r="DZ181" t="n">
         <v>10216.0</v>
+      </c>
+      <c r="EA181" t="n">
+        <v>10233.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -71984,12 +72525,15 @@
         <v>106.0</v>
       </c>
       <c r="DZ182" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="EA182" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -72376,12 +72920,15 @@
         <v>128.0</v>
       </c>
       <c r="DZ183" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="EA183" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -72768,12 +73315,15 @@
         <v>3831.0</v>
       </c>
       <c r="DZ184" t="n">
+        <v>3831.0</v>
+      </c>
+      <c r="EA184" t="n">
         <v>3831.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -73160,12 +73710,15 @@
         <v>372.0</v>
       </c>
       <c r="DZ185" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="EA185" t="n">
         <v>374.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -73553,11 +74106,14 @@
       </c>
       <c r="DZ186" t="n">
         <v>559.0</v>
+      </c>
+      <c r="EA186" t="n">
+        <v>561.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -73945,11 +74501,14 @@
       </c>
       <c r="DZ187" t="n">
         <v>2970.0</v>
+      </c>
+      <c r="EA187" t="n">
+        <v>2986.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -74336,12 +74895,15 @@
         <v>341.0</v>
       </c>
       <c r="DZ188" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="EA188" t="n">
         <v>341.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -74729,11 +75291,14 @@
       </c>
       <c r="DZ189" t="n">
         <v>270.0</v>
+      </c>
+      <c r="EA189" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -75121,11 +75686,14 @@
       </c>
       <c r="DZ190" t="n">
         <v>1587.0</v>
+      </c>
+      <c r="EA190" t="n">
+        <v>1606.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -75512,12 +76080,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -75904,12 +76475,15 @@
         <v>168.0</v>
       </c>
       <c r="DZ192" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="EA192" t="n">
         <v>165.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -76297,11 +76871,14 @@
       </c>
       <c r="DZ193" t="n">
         <v>380.0</v>
+      </c>
+      <c r="EA193" t="n">
+        <v>381.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -76688,12 +77265,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -77080,12 +77660,15 @@
         <v>173.0</v>
       </c>
       <c r="DZ195" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="EA195" t="n">
         <v>173.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -77472,12 +78055,15 @@
         <v>35.0</v>
       </c>
       <c r="DZ196" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="EA196" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -77865,11 +78451,14 @@
       </c>
       <c r="DZ197" t="n">
         <v>256.0</v>
+      </c>
+      <c r="EA197" t="n">
+        <v>257.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -78257,11 +78846,14 @@
       </c>
       <c r="DZ198" t="n">
         <v>702.0</v>
+      </c>
+      <c r="EA198" t="n">
+        <v>696.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -78648,12 +79240,15 @@
         <v>61.0</v>
       </c>
       <c r="DZ199" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EA199" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -79040,12 +79635,15 @@
         <v>3.0</v>
       </c>
       <c r="DZ200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="EA200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -79433,11 +80031,14 @@
       </c>
       <c r="DZ201" t="n">
         <v>406.0</v>
+      </c>
+      <c r="EA201" t="n">
+        <v>405.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -79825,11 +80426,14 @@
       </c>
       <c r="DZ202" t="n">
         <v>1919.0</v>
+      </c>
+      <c r="EA202" t="n">
+        <v>1923.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -80216,12 +80820,15 @@
         <v>488.0</v>
       </c>
       <c r="DZ203" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="EA203" t="n">
         <v>488.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -80608,12 +81215,15 @@
         <v>1652.0</v>
       </c>
       <c r="DZ204" t="n">
+        <v>1654.0</v>
+      </c>
+      <c r="EA204" t="n">
         <v>1654.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -81000,12 +81610,15 @@
         <v>328.0</v>
       </c>
       <c r="DZ205" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="EA205" t="n">
         <v>331.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -81393,11 +82006,14 @@
       </c>
       <c r="DZ206" t="n">
         <v>210.0</v>
+      </c>
+      <c r="EA206" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -81785,11 +82401,14 @@
       </c>
       <c r="DZ207" t="n">
         <v>296.0</v>
+      </c>
+      <c r="EA207" t="n">
+        <v>302.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -82176,12 +82795,15 @@
         <v>964.0</v>
       </c>
       <c r="DZ208" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="EA208" t="n">
         <v>964.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -82568,12 +83190,15 @@
         <v>252.0</v>
       </c>
       <c r="DZ209" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="EA209" t="n">
         <v>252.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -82961,11 +83586,14 @@
       </c>
       <c r="DZ210" t="n">
         <v>111.0</v>
+      </c>
+      <c r="EA210" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -83353,11 +83981,14 @@
       </c>
       <c r="DZ211" t="n">
         <v>78.0</v>
+      </c>
+      <c r="EA211" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -83744,12 +84375,15 @@
         <v>123.0</v>
       </c>
       <c r="DZ212" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="EA212" t="n">
         <v>124.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -84137,11 +84771,14 @@
       </c>
       <c r="DZ213" t="n">
         <v>664.0</v>
+      </c>
+      <c r="EA213" t="n">
+        <v>668.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -84528,12 +85165,15 @@
         <v>24.0</v>
       </c>
       <c r="DZ214" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="EA214" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -84921,11 +85561,14 @@
       </c>
       <c r="DZ215" t="n">
         <v>7932.0</v>
+      </c>
+      <c r="EA215" t="n">
+        <v>7941.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -85312,12 +85955,15 @@
         <v>467.0</v>
       </c>
       <c r="DZ216" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="EA216" t="n">
         <v>467.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -85705,11 +86351,14 @@
       </c>
       <c r="DZ217" t="n">
         <v>1554.0</v>
+      </c>
+      <c r="EA217" t="n">
+        <v>1561.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -86097,11 +86746,14 @@
       </c>
       <c r="DZ218" t="n">
         <v>339.0</v>
+      </c>
+      <c r="EA218" t="n">
+        <v>340.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -86488,12 +87140,15 @@
         <v>59.0</v>
       </c>
       <c r="DZ219" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="EA219" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -86880,12 +87535,15 @@
         <v>105.0</v>
       </c>
       <c r="DZ220" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="EA220" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -87272,12 +87930,15 @@
         <v>196.0</v>
       </c>
       <c r="DZ221" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="EA221" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -87664,12 +88325,15 @@
         <v>363.0</v>
       </c>
       <c r="DZ222" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="EA222" t="n">
         <v>364.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -88057,11 +88721,14 @@
       </c>
       <c r="DZ223" t="n">
         <v>37221.0</v>
+      </c>
+      <c r="EA223" t="n">
+        <v>37330.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -88449,11 +89116,14 @@
       </c>
       <c r="DZ224" t="n">
         <v>8202.0</v>
+      </c>
+      <c r="EA224" t="n">
+        <v>8208.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -88840,12 +89510,15 @@
         <v>11.0</v>
       </c>
       <c r="DZ225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="EA225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -89232,12 +89905,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -89624,12 +90300,15 @@
         <v>23.0</v>
       </c>
       <c r="DZ227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="EA227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -90016,12 +90695,15 @@
         <v>953.0</v>
       </c>
       <c r="DZ228" t="n">
+        <v>957.0</v>
+      </c>
+      <c r="EA228" t="n">
         <v>957.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -90409,11 +91091,14 @@
       </c>
       <c r="DZ229" t="n">
         <v>8091.0</v>
+      </c>
+      <c r="EA229" t="n">
+        <v>8098.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -90800,12 +91485,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -91192,12 +91880,15 @@
         <v>198.0</v>
       </c>
       <c r="DZ231" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="EA231" t="n">
         <v>197.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -91584,12 +92275,15 @@
         <v>671.0</v>
       </c>
       <c r="DZ232" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="EA232" t="n">
         <v>679.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -91977,11 +92671,14 @@
       </c>
       <c r="DZ233" t="n">
         <v>1868.0</v>
+      </c>
+      <c r="EA233" t="n">
+        <v>1869.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -92369,11 +93066,14 @@
       </c>
       <c r="DZ234" t="n">
         <v>303.0</v>
+      </c>
+      <c r="EA234" t="n">
+        <v>304.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -92760,12 +93460,15 @@
         <v>117.0</v>
       </c>
       <c r="DZ235" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="EA235" t="n">
         <v>117.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -93152,12 +93855,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -93545,11 +94251,14 @@
       </c>
       <c r="DZ237" t="n">
         <v>1498.0</v>
+      </c>
+      <c r="EA237" t="n">
+        <v>1503.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -93936,12 +94645,15 @@
         <v>9.0</v>
       </c>
       <c r="DZ238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="EA238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -94328,12 +95040,15 @@
         <v>834.0</v>
       </c>
       <c r="DZ239" t="n">
+        <v>835.0</v>
+      </c>
+      <c r="EA239" t="n">
         <v>835.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -94721,11 +95436,14 @@
       </c>
       <c r="DZ240" t="n">
         <v>471.0</v>
+      </c>
+      <c r="EA240" t="n">
+        <v>476.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -95113,11 +95831,14 @@
       </c>
       <c r="DZ241" t="n">
         <v>467.0</v>
+      </c>
+      <c r="EA241" t="n">
+        <v>468.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -95505,11 +96226,14 @@
       </c>
       <c r="DZ242" t="n">
         <v>643.0</v>
+      </c>
+      <c r="EA242" t="n">
+        <v>642.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -95896,12 +96620,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -96288,12 +97015,15 @@
         <v>394.0</v>
       </c>
       <c r="DZ244" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="EA244" t="n">
         <v>394.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -96680,12 +97410,15 @@
         <v>45.0</v>
       </c>
       <c r="DZ245" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="EA245" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -97072,12 +97805,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -97464,12 +98200,15 @@
         <v>281.0</v>
       </c>
       <c r="DZ247" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="EA247" t="n">
         <v>281.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -97857,11 +98596,14 @@
       </c>
       <c r="DZ248" t="n">
         <v>175.0</v>
+      </c>
+      <c r="EA248" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -98249,11 +98991,14 @@
       </c>
       <c r="DZ249" t="n">
         <v>5518.0</v>
+      </c>
+      <c r="EA249" t="n">
+        <v>5549.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -98641,11 +99386,14 @@
       </c>
       <c r="DZ250" t="n">
         <v>1060.0</v>
+      </c>
+      <c r="EA250" t="n">
+        <v>1067.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -99032,12 +99780,15 @@
         <v>182.0</v>
       </c>
       <c r="DZ251" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="EA251" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -99425,11 +100176,14 @@
       </c>
       <c r="DZ252" t="n">
         <v>1145.0</v>
+      </c>
+      <c r="EA252" t="n">
+        <v>1149.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -99817,11 +100571,14 @@
       </c>
       <c r="DZ253" t="n">
         <v>1383.0</v>
+      </c>
+      <c r="EA253" t="n">
+        <v>1382.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -100208,12 +100965,15 @@
         <v>0.0</v>
       </c>
       <c r="DZ254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -100600,12 +101360,15 @@
         <v>227.0</v>
       </c>
       <c r="DZ255" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="EA255" t="n">
         <v>227.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -100992,12 +101755,15 @@
         <v>204.0</v>
       </c>
       <c r="DZ256" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="EA256" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -101384,6 +102150,9 @@
         <v>201.0</v>
       </c>
       <c r="DZ257" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="EA257" t="n">
         <v>201.0</v>
       </c>
     </row>
